--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/CodeSystem-jp-medication-code-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/CodeSystem-jp-medication-code-hot9-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T08:24:08+00:00</t>
+    <t>2022-08-18T01:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/CodeSystem-jp-medication-code-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/CodeSystem-jp-medication-code-hot9-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T01:06:26+00:00</t>
+    <t>2022-08-18T06:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/CodeSystem-jp-medication-code-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/CodeSystem-jp-medication-code-hot9-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T06:30:33+00:00</t>
+    <t>2022-08-18T06:58:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/CodeSystem-jp-medication-code-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/CodeSystem-jp-medication-code-hot9-cs.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Concepts" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -56,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T08:52:30+00:00</t>
+    <t>2022-08-31T10:13:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -113,13 +114,46 @@
     <t>Content</t>
   </si>
   <si>
-    <t>not-present</t>
+    <t>fragment</t>
   </si>
   <si>
     <t>Supplements</t>
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>182110901</t>
+  </si>
+  <si>
+    <t>コミナティ筋注</t>
+  </si>
+  <si>
+    <t>103835401</t>
+  </si>
+  <si>
+    <t>ムコダイン錠２５０ｍｇ</t>
+  </si>
+  <si>
+    <t>110626901</t>
+  </si>
+  <si>
+    <t>パンスポリンＴ錠１００ １００ｍｇ</t>
   </si>
 </sst>
 </file>
@@ -428,4 +462,67 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/CodeSystem-jp-medication-code-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/CodeSystem-jp-medication-code-hot9-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:13:48+00:00</t>
+    <t>2022-09-01T00:29:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -138,22 +138,40 @@
     <t>1</t>
   </si>
   <si>
+    <t>100558502</t>
+  </si>
+  <si>
+    <t>ホリゾン注射液１０ｍｇ</t>
+  </si>
+  <si>
+    <t>103835401</t>
+  </si>
+  <si>
+    <t>ムコダイン錠２５０ｍｇ</t>
+  </si>
+  <si>
+    <t>107750602</t>
+  </si>
+  <si>
+    <t>ソリタ－Ｔ３号輸液５００ｍＬ</t>
+  </si>
+  <si>
+    <t>108010001</t>
+  </si>
+  <si>
+    <t>アドナ注（静脈用）５０ｍｇ／１０ｍＬ</t>
+  </si>
+  <si>
+    <t>110626901</t>
+  </si>
+  <si>
+    <t>パンスポリンＴ錠１００ １００ｍｇ</t>
+  </si>
+  <si>
     <t>182110901</t>
   </si>
   <si>
     <t>コミナティ筋注</t>
-  </si>
-  <si>
-    <t>103835401</t>
-  </si>
-  <si>
-    <t>ムコダイン錠２５０ｍｇ</t>
-  </si>
-  <si>
-    <t>110626901</t>
-  </si>
-  <si>
-    <t>パンスポリンＴ錠１００ １００ｍｇ</t>
   </si>
 </sst>
 </file>
@@ -466,7 +484,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -522,6 +540,42 @@
       </c>
       <c r="D4" s="2"/>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/CodeSystem-jp-medication-code-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/CodeSystem-jp-medication-code-hot9-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T00:29:56+00:00</t>
+    <t>2022-09-01T02:21:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
